--- a/Backend/AIBatch-Updated.xlsx
+++ b/Backend/AIBatch-Updated.xlsx
@@ -433,7 +433,7 @@
         <v>i191654@nu.edu.pk</v>
       </c>
       <c r="E2" t="str">
-        <v>MyZumgeg</v>
+        <v>vt4YiazG</v>
       </c>
     </row>
     <row r="3">
@@ -450,7 +450,7 @@
         <v>i191656@nu.edu.pk</v>
       </c>
       <c r="E3" t="str">
-        <v>oacMX3wg</v>
+        <v>9CxKpPUJ</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         <v>i191659@nu.edu.pk</v>
       </c>
       <c r="E4" t="str">
-        <v>wPQCCXSb</v>
+        <v>QcskRSjA</v>
       </c>
     </row>
     <row r="5">
@@ -484,7 +484,7 @@
         <v>i191660@nu.edu.pk</v>
       </c>
       <c r="E5" t="str">
-        <v>B6o9GMd4</v>
+        <v>RSTGXZZb</v>
       </c>
     </row>
     <row r="6">
@@ -501,7 +501,7 @@
         <v>i191661@nu.edu.pk</v>
       </c>
       <c r="E6" t="str">
-        <v>ZybOjJ0m</v>
+        <v>2iyUGBnq</v>
       </c>
     </row>
     <row r="7">
@@ -518,7 +518,7 @@
         <v>i191665@nu.edu.pk</v>
       </c>
       <c r="E7" t="str">
-        <v>MkSVF2pK</v>
+        <v>YLN7WVXX</v>
       </c>
     </row>
     <row r="8">
@@ -535,7 +535,7 @@
         <v>i191669@nu.edu.pk</v>
       </c>
       <c r="E8" t="str">
-        <v>QVJjjZ0d</v>
+        <v>WzhEOfit</v>
       </c>
     </row>
     <row r="9">
@@ -552,7 +552,7 @@
         <v>i191673@nu.edu.pk</v>
       </c>
       <c r="E9" t="str">
-        <v>A3on752c</v>
+        <v>qJ8VdBkd</v>
       </c>
     </row>
     <row r="10">
@@ -569,7 +569,7 @@
         <v>i191674@nu.edu.pk</v>
       </c>
       <c r="E10" t="str">
-        <v>ucIAIPh4</v>
+        <v>Qszm035D</v>
       </c>
     </row>
     <row r="11">
@@ -586,7 +586,7 @@
         <v>i191679@nu.edu.pk</v>
       </c>
       <c r="E11" t="str">
-        <v>unZwQwRv</v>
+        <v>tgDAPVVN</v>
       </c>
     </row>
     <row r="12">
@@ -603,7 +603,7 @@
         <v>i191680@nu.edu.pk</v>
       </c>
       <c r="E12" t="str">
-        <v>xpEIymC7</v>
+        <v>mdZYs3CB</v>
       </c>
     </row>
     <row r="13">
@@ -620,7 +620,7 @@
         <v>i191681@nu.edu.pk</v>
       </c>
       <c r="E13" t="str">
-        <v>XSBucqUQ</v>
+        <v>ZZNggJiY</v>
       </c>
     </row>
     <row r="14">
@@ -637,7 +637,7 @@
         <v>i191689@nu.edu.pk</v>
       </c>
       <c r="E14" t="str">
-        <v>gfTCJY7d</v>
+        <v>cJZesMVj</v>
       </c>
     </row>
     <row r="15">
@@ -654,7 +654,7 @@
         <v>i191690@nu.edu.pk</v>
       </c>
       <c r="E15" t="str">
-        <v>w2gmFLul</v>
+        <v>smn7ky8i</v>
       </c>
     </row>
     <row r="16">
@@ -671,7 +671,7 @@
         <v>i191691@nu.edu.pk</v>
       </c>
       <c r="E16" t="str">
-        <v>fnL7kdAb</v>
+        <v>YMYkgSVT</v>
       </c>
     </row>
     <row r="17">
@@ -688,7 +688,7 @@
         <v>i191693@nu.edu.pk</v>
       </c>
       <c r="E17" t="str">
-        <v>uIdvDU53</v>
+        <v>mnCD1wC5</v>
       </c>
     </row>
     <row r="18">
@@ -705,7 +705,7 @@
         <v>i191697@nu.edu.pk</v>
       </c>
       <c r="E18" t="str">
-        <v>U8ITQ3K5</v>
+        <v>VUcmtfLc</v>
       </c>
     </row>
     <row r="19">
@@ -722,7 +722,7 @@
         <v>i191699@nu.edu.pk</v>
       </c>
       <c r="E19" t="str">
-        <v>AxaYdaIX</v>
+        <v>8HepGm7e</v>
       </c>
     </row>
     <row r="20">
@@ -739,7 +739,7 @@
         <v>i191707@nu.edu.pk</v>
       </c>
       <c r="E20" t="str">
-        <v>Ntc62dzW</v>
+        <v>Q3Qb2zKv</v>
       </c>
     </row>
     <row r="21">
@@ -756,7 +756,7 @@
         <v>i191708@nu.edu.pk</v>
       </c>
       <c r="E21" t="str">
-        <v>xiMPLWem</v>
+        <v>Hff4Feag</v>
       </c>
     </row>
     <row r="22">
@@ -773,7 +773,7 @@
         <v>i191721@nu.edu.pk</v>
       </c>
       <c r="E22" t="str">
-        <v>jNFvCWYe</v>
+        <v>INquZdjI</v>
       </c>
     </row>
     <row r="23">
@@ -790,7 +790,7 @@
         <v>i191723@nu.edu.pk</v>
       </c>
       <c r="E23" t="str">
-        <v>cmoMNuPX</v>
+        <v>2nXTMkIc</v>
       </c>
     </row>
     <row r="24">
@@ -807,7 +807,7 @@
         <v>i191731@nu.edu.pk</v>
       </c>
       <c r="E24" t="str">
-        <v>4OzBEq1S</v>
+        <v>Z7rTAmTe</v>
       </c>
     </row>
     <row r="25">
@@ -824,7 +824,7 @@
         <v>i191732@nu.edu.pk</v>
       </c>
       <c r="E25" t="str">
-        <v>bCuUdEwG</v>
+        <v>JA9lgbQp</v>
       </c>
     </row>
     <row r="26">
@@ -841,7 +841,7 @@
         <v>i191734@nu.edu.pk</v>
       </c>
       <c r="E26" t="str">
-        <v>81FJF1ND</v>
+        <v>XCZ7gVSb</v>
       </c>
     </row>
     <row r="27">
@@ -858,7 +858,7 @@
         <v>i191735@nu.edu.pk</v>
       </c>
       <c r="E27" t="str">
-        <v>Al2rkKKE</v>
+        <v>yYjO7wxA</v>
       </c>
     </row>
     <row r="28">
@@ -875,7 +875,7 @@
         <v>i191750@nu.edu.pk</v>
       </c>
       <c r="E28" t="str">
-        <v>Hr2VYuO7</v>
+        <v>hk7qifTF</v>
       </c>
     </row>
     <row r="29">
@@ -892,7 +892,7 @@
         <v>i191772@nu.edu.pk</v>
       </c>
       <c r="E29" t="str">
-        <v>1RdSrOjU</v>
+        <v>Y9aNbyjJ</v>
       </c>
     </row>
     <row r="30">
@@ -909,7 +909,7 @@
         <v>i191775@nu.edu.pk</v>
       </c>
       <c r="E30" t="str">
-        <v>HrDQ6yNB</v>
+        <v>QhRwMoAX</v>
       </c>
     </row>
     <row r="31">
@@ -926,7 +926,7 @@
         <v>i191776@nu.edu.pk</v>
       </c>
       <c r="E31" t="str">
-        <v>xb2i0paT</v>
+        <v>ruHROB31</v>
       </c>
     </row>
     <row r="32">
@@ -943,7 +943,7 @@
         <v>i191778@nu.edu.pk</v>
       </c>
       <c r="E32" t="str">
-        <v>8LpR7GF8</v>
+        <v>g6Vz6joR</v>
       </c>
     </row>
     <row r="33">
@@ -960,7 +960,7 @@
         <v>i191787@nu.edu.pk</v>
       </c>
       <c r="E33" t="str">
-        <v>mr3JdYAG</v>
+        <v>Z1OyY0tY</v>
       </c>
     </row>
     <row r="34">
@@ -977,7 +977,7 @@
         <v>i191793@nu.edu.pk</v>
       </c>
       <c r="E34" t="str">
-        <v>s3qvEvEK</v>
+        <v>pTlh6n0i</v>
       </c>
     </row>
     <row r="35">
@@ -994,7 +994,7 @@
         <v>i191796@nu.edu.pk</v>
       </c>
       <c r="E35" t="str">
-        <v>a8oLLnhw</v>
+        <v>sWGlK5b3</v>
       </c>
     </row>
     <row r="36">
@@ -1011,7 +1011,7 @@
         <v>i191797@nu.edu.pk</v>
       </c>
       <c r="E36" t="str">
-        <v>cQGA6UIN</v>
+        <v>WmR26GJy</v>
       </c>
     </row>
     <row r="37">
@@ -1028,7 +1028,7 @@
         <v>i191851@nu.edu.pk</v>
       </c>
       <c r="E37" t="str">
-        <v>K870ZN4w</v>
+        <v>5NQhmvMU</v>
       </c>
     </row>
     <row r="38">
@@ -1045,7 +1045,7 @@
         <v>i191854@nu.edu.pk</v>
       </c>
       <c r="E38" t="str">
-        <v>e5fmfz4V</v>
+        <v>b7wD2MLq</v>
       </c>
     </row>
     <row r="39">
@@ -1062,7 +1062,7 @@
         <v>i191856@nu.edu.pk</v>
       </c>
       <c r="E39" t="str">
-        <v>4T0lbo0I</v>
+        <v>fvxehjhl</v>
       </c>
     </row>
     <row r="40">
@@ -1079,7 +1079,7 @@
         <v>i191861@nu.edu.pk</v>
       </c>
       <c r="E40" t="str">
-        <v>5AFjbL6v</v>
+        <v>7gPM9HjX</v>
       </c>
     </row>
     <row r="41">
@@ -1096,7 +1096,7 @@
         <v>i191863@nu.edu.pk</v>
       </c>
       <c r="E41" t="str">
-        <v>PXx34nYL</v>
+        <v>aaIjG4AB</v>
       </c>
     </row>
     <row r="42">
@@ -1113,7 +1113,7 @@
         <v>i191869@nu.edu.pk</v>
       </c>
       <c r="E42" t="str">
-        <v>OpHLHMJN</v>
+        <v>Ayh89WCQ</v>
       </c>
     </row>
     <row r="43">
@@ -1130,7 +1130,7 @@
         <v>i191874@nu.edu.pk</v>
       </c>
       <c r="E43" t="str">
-        <v>bQvXSMqr</v>
+        <v>4j90P5QT</v>
       </c>
     </row>
     <row r="44">
@@ -1147,7 +1147,7 @@
         <v>i191877@nu.edu.pk</v>
       </c>
       <c r="E44" t="str">
-        <v>dinEnCOH</v>
+        <v>rbLzR3tE</v>
       </c>
     </row>
     <row r="45">
@@ -1164,7 +1164,7 @@
         <v>i191880@nu.edu.pk</v>
       </c>
       <c r="E45" t="str">
-        <v>ggb1cfui</v>
+        <v>8aNcbNvB</v>
       </c>
     </row>
     <row r="46">
@@ -1181,7 +1181,7 @@
         <v>i191883@nu.edu.pk</v>
       </c>
       <c r="E46" t="str">
-        <v>WM5GrNIW</v>
+        <v>JtFUp8wV</v>
       </c>
     </row>
     <row r="47">
@@ -1198,7 +1198,7 @@
         <v>i191885@nu.edu.pk</v>
       </c>
       <c r="E47" t="str">
-        <v>pFQg5Q8C</v>
+        <v>Bi6EpOxl</v>
       </c>
     </row>
     <row r="48">
@@ -1215,7 +1215,7 @@
         <v>i191899@nu.edu.pk</v>
       </c>
       <c r="E48" t="str">
-        <v>zYCxss6k</v>
+        <v>GH9jrGLW</v>
       </c>
     </row>
     <row r="49">
@@ -1232,7 +1232,7 @@
         <v>i191900@nu.edu.pk</v>
       </c>
       <c r="E49" t="str">
-        <v>pRGWnzC8</v>
+        <v>3AR2f6At</v>
       </c>
     </row>
     <row r="50">
@@ -1249,7 +1249,7 @@
         <v>i191901@nu.edu.pk</v>
       </c>
       <c r="E50" t="str">
-        <v>iWUO3kBj</v>
+        <v>hEpSherE</v>
       </c>
     </row>
     <row r="51">
@@ -1266,7 +1266,7 @@
         <v>i191904@nu.edu.pk</v>
       </c>
       <c r="E51" t="str">
-        <v>c7kkB9hW</v>
+        <v>P4veTaXq</v>
       </c>
     </row>
     <row r="52">
@@ -1283,7 +1283,7 @@
         <v>i191905@nu.edu.pk</v>
       </c>
       <c r="E52" t="str">
-        <v>VEXHkFEw</v>
+        <v>4IzNA7QT</v>
       </c>
     </row>
     <row r="53">
@@ -1300,7 +1300,7 @@
         <v>i191906@nu.edu.pk</v>
       </c>
       <c r="E53" t="str">
-        <v>yZG1Tiam</v>
+        <v>flnzXmUt</v>
       </c>
     </row>
     <row r="54">
@@ -1317,7 +1317,7 @@
         <v>i191910@nu.edu.pk</v>
       </c>
       <c r="E54" t="str">
-        <v>kde2ErEp</v>
+        <v>FE2oIz8v</v>
       </c>
     </row>
   </sheetData>
